--- a/Excel_PowerBI/Book6.xlsx
+++ b/Excel_PowerBI/Book6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Documents\Projects\Pyspiders_Python\Excel_PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF251E7E-3204-436F-8DA8-CAF63CDFDF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6650509D-0FC8-4B3B-BD60-54E99098D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4CAF32C-15F3-4FC6-83C3-7C64B7AC903A}"/>
   </bookViews>
@@ -81,6 +81,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61942846-F029-CBF5-0B4E-B8679284C1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="281940" y="121920"/>
+          <a:ext cx="7033260" cy="4411980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3368"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC6BC59-D7ED-411C-C21E-3EF0E273B6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="182880"/>
+          <a:ext cx="876300" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 17019"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14243</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576841</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593AEE28-2862-4CFC-BF64-D892BD7D50EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1239140" y="185159"/>
+          <a:ext cx="6074636" cy="740635"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13031"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB93116-A7EF-424D-8569-78DEA8785D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="335280" y="940038"/>
+          <a:ext cx="879149" cy="3587596"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13894"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283682</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8A92EF-790D-44ED-B1E7-35B96B111F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1274748" y="954280"/>
+          <a:ext cx="1458728" cy="745851"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12073"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320468</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564270</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21E6A58-CBC3-4E99-B52B-A933CB50A8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2770262" y="954280"/>
+          <a:ext cx="1468700" cy="738017"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 14052"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="70000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220766</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113944</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3396953" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8714DEAF-16EB-AC6C-133F-EE95EB60302A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2670560" y="299103"/>
+          <a:ext cx="3396953" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sales Analysis Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35608</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E37311-8EF5-49D7-AD05-7AF7D232EAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260505" y="1737645"/>
+          <a:ext cx="2969663" cy="1445663"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4578"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35607</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562597</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40B0D82-9287-4F3C-8558-BDFE0B01CC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260504" y="3211794"/>
+          <a:ext cx="2976785" cy="1303234"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6210"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>591084</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569719</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0CB939-4025-44FB-8307-58FD1BA19F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4265776" y="968524"/>
+          <a:ext cx="3040878" cy="3546504"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="18000">
+              <a:srgbClr val="A2B9E2"/>
+            </a:gs>
+            <a:gs pos="49000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="90000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="13200000" scaled="0"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,10 +1185,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2434C809-6FE3-4C8B-ADB5-72DC1E3DB0D5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>